--- a/va_facility_data_2025-02-20/Hyannis VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hyannis%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hyannis VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hyannis%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R69e71d800338452aa4fee231de85342c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R765ea0383b644bdcb861d771f8ee483a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R089b1141db8b45ea9306fc0fe2541bb9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdf54dc3b643f45e39dad32032b603df7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3083d2cd062a4fd193c0b13e22747713"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R605788c449a4479c8782ecf25b800c5f"/>
   </x:sheets>
 </x:workbook>
 </file>
